--- a/mod_2_sheet_2.xlsx
+++ b/mod_2_sheet_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445068B4-B98A-3849-987E-3693F8FB3B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22C9D78-452E-7D4D-A7A1-2C83924ADDBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{48FEB8DA-D574-6F49-B268-26E9B92F6286}"/>
+    <workbookView xWindow="1520" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{48FEB8DA-D574-6F49-B268-26E9B92F6286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,14 +86,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0039E7-3000-D74C-B276-9C9DA5B035A2}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="177" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>210</v>
+        <v>229.21</v>
       </c>
       <c r="B40" s="2">
         <v>96</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>210</v>
+        <v>229.21</v>
       </c>
       <c r="B41" s="2">
         <v>102</v>
@@ -1115,8 +1118,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>226</v>
+      <c r="A42" s="4">
+        <v>229.226</v>
       </c>
       <c r="B42" s="2">
         <v>102</v>
@@ -1132,8 +1135,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>235</v>
+      <c r="A43" s="4">
+        <v>229.226</v>
       </c>
       <c r="B43" s="2">
         <v>136</v>
@@ -1149,8 +1152,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>244</v>
+      <c r="A44" s="4">
+        <v>229.226</v>
       </c>
       <c r="B44" s="2">
         <v>136</v>
@@ -1166,8 +1169,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>265</v>
+      <c r="A45" s="4">
+        <v>229.226</v>
       </c>
       <c r="B45" s="2">
         <v>164</v>
@@ -1183,8 +1186,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>275</v>
+      <c r="A46" s="4">
+        <v>229.226</v>
       </c>
       <c r="B46" s="2">
         <v>164</v>
@@ -1200,8 +1203,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>290</v>
+      <c r="A47" s="4">
+        <v>229.226</v>
       </c>
       <c r="B47" s="2">
         <v>164</v>

--- a/mod_2_sheet_2.xlsx
+++ b/mod_2_sheet_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22C9D78-452E-7D4D-A7A1-2C83924ADDBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E6C0E3-CCC5-D74B-8378-A92A14332CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{48FEB8DA-D574-6F49-B268-26E9B92F6286}"/>
+    <workbookView xWindow="1520" yWindow="600" windowWidth="18800" windowHeight="16940" xr2:uid="{48FEB8DA-D574-6F49-B268-26E9B92F6286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Pump Model</t>
   </si>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +61,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -96,6 +103,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,15 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0039E7-3000-D74C-B276-9C9DA5B035A2}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="177" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +452,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>88</v>
       </c>
@@ -453,8 +472,11 @@
       <c r="E2" s="3">
         <v>2.0129999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>88</v>
       </c>
@@ -470,8 +492,11 @@
       <c r="E3" s="3">
         <v>2.2650000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>88</v>
       </c>
@@ -487,8 +512,11 @@
       <c r="E4" s="3">
         <v>2.6179999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>88</v>
       </c>
@@ -504,8 +532,11 @@
       <c r="E5" s="3">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -521,8 +552,11 @@
       <c r="E6" s="3">
         <v>3.3260000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -538,8 +572,11 @@
       <c r="E7" s="3">
         <v>3.6040000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -555,8 +592,11 @@
       <c r="E8" s="3">
         <v>4.0190000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>105</v>
       </c>
@@ -572,8 +612,11 @@
       <c r="E9" s="3">
         <v>4.4349999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>118</v>
       </c>
@@ -589,8 +632,11 @@
       <c r="E10" s="3">
         <v>5.0590000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>118</v>
       </c>
@@ -606,8 +652,11 @@
       <c r="E11" s="3">
         <v>5.5819999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>118</v>
       </c>
@@ -623,8 +672,11 @@
       <c r="E12" s="3">
         <v>6.1059999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>118</v>
       </c>
@@ -640,8 +692,11 @@
       <c r="E13" s="3">
         <v>6.8040000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>135</v>
       </c>
@@ -657,8 +712,11 @@
       <c r="E14" s="3">
         <v>7.4820000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>135</v>
       </c>
@@ -674,8 +732,11 @@
       <c r="E15" s="3">
         <v>8.3759999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>135</v>
       </c>
@@ -691,8 +752,11 @@
       <c r="E16" s="3">
         <v>9.3610000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>135</v>
       </c>
@@ -708,8 +772,11 @@
       <c r="E17" s="3">
         <v>10.273999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>150</v>
       </c>
@@ -725,8 +792,11 @@
       <c r="E18" s="3">
         <v>11.641999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>150</v>
       </c>
@@ -742,8 +812,11 @@
       <c r="E19" s="3">
         <v>12.750999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>150</v>
       </c>
@@ -759,8 +832,11 @@
       <c r="E20" s="3">
         <v>14.137</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>165</v>
       </c>
@@ -776,8 +852,11 @@
       <c r="E21" s="3">
         <v>15.362</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>165</v>
       </c>
@@ -793,8 +872,11 @@
       <c r="E22" s="3">
         <v>17.032</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>165</v>
       </c>
@@ -810,8 +892,11 @@
       <c r="E23" s="3">
         <v>18.702000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>180</v>
       </c>
@@ -827,8 +912,11 @@
       <c r="E24" s="3">
         <v>19.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>180</v>
       </c>
@@ -844,8 +932,11 @@
       <c r="E25" s="3">
         <v>20.356999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>180</v>
       </c>
@@ -861,8 +952,11 @@
       <c r="E26" s="3">
         <v>22.353000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>180</v>
       </c>
@@ -878,8 +972,11 @@
       <c r="E27" s="3">
         <v>24.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>195</v>
       </c>
@@ -895,8 +992,11 @@
       <c r="E28" s="3">
         <v>22.404</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>195</v>
       </c>
@@ -912,8 +1012,11 @@
       <c r="E29" s="3">
         <v>23.803999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>195</v>
       </c>
@@ -929,8 +1032,11 @@
       <c r="E30" s="3">
         <v>26.138000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>195</v>
       </c>
@@ -946,8 +1052,11 @@
       <c r="E31" s="3">
         <v>28.472000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>210</v>
       </c>
@@ -963,8 +1072,11 @@
       <c r="E32" s="3">
         <v>26.079000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>210</v>
       </c>
@@ -980,8 +1092,11 @@
       <c r="E33" s="3">
         <v>27.709</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>210</v>
       </c>
@@ -997,8 +1112,11 @@
       <c r="E34" s="3">
         <v>30.425999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>210</v>
       </c>
@@ -1014,8 +1132,11 @@
       <c r="E35" s="3">
         <v>33.142000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>225</v>
       </c>
@@ -1031,8 +1152,11 @@
       <c r="E36" s="3">
         <v>29.843</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>225</v>
       </c>
@@ -1048,8 +1172,11 @@
       <c r="E37" s="3">
         <v>31.707999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>225</v>
       </c>
@@ -1065,8 +1192,11 @@
       <c r="E38" s="3">
         <v>34.816000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>225</v>
       </c>
@@ -1082,141 +1212,168 @@
       <c r="E39" s="3">
         <v>37.924999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="F39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>229.21</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>96</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>235</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>29</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="F40" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>229.21</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>102</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>250</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>29</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>229.226</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>102</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>336</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>32</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>229.226</v>
-      </c>
-      <c r="B43" s="2">
+        <v>229.23500000000001</v>
+      </c>
+      <c r="B43" s="4">
         <v>136</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>408.6</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>45</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>229.226</v>
-      </c>
-      <c r="B44" s="2">
+        <v>229.244</v>
+      </c>
+      <c r="B44" s="4">
         <v>136</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>485.4</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>55</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>229.226</v>
-      </c>
-      <c r="B45" s="2">
+        <v>229.26499999999999</v>
+      </c>
+      <c r="B45" s="4">
         <v>164</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>695.3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>67</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>229.226</v>
-      </c>
-      <c r="B46" s="2">
+        <v>229.27500000000001</v>
+      </c>
+      <c r="B46" s="4">
         <v>164</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>792</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>80</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>229.226</v>
-      </c>
-      <c r="B47" s="2">
+        <v>229.29</v>
+      </c>
+      <c r="B47" s="4">
         <v>164</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>950</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>102</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>75</v>
+      </c>
+      <c r="F47" s="6">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
